--- a/service-code-things-to-fix.xlsx
+++ b/service-code-things-to-fix.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarsa/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarsa/src/cci/wf2/sc-audit/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="19280" windowHeight="21120" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="19280" windowHeight="15000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Service Code Audit" sheetId="1" r:id="rId1"/>
     <sheet name="Other Operations with issues" sheetId="3" r:id="rId2"/>
+    <sheet name="Consistency Checks" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>Settings-&gt;Payroll-&gt;Invoice Types</t>
   </si>
@@ -214,13 +215,31 @@
   </si>
   <si>
     <t>ServiceProviders have many ServiceCodes</t>
+  </si>
+  <si>
+    <t>Service Code</t>
+  </si>
+  <si>
+    <t>AII Type</t>
+  </si>
+  <si>
+    <t>Part AII  mapped to</t>
+  </si>
+  <si>
+    <t>Vendor Parts mapping to AII Part</t>
+  </si>
+  <si>
+    <t>Associated Invoice Item</t>
+  </si>
+  <si>
+    <t>Service Code is on-boarded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,6 +285,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -290,7 +322,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -315,6 +347,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -598,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="125" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -982,4 +1020,50 @@
     <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000&amp;D&amp;C&amp;"Calibri,Regular"&amp;K000000&amp;F&amp;R&amp;"Calibri,Regular"&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>